--- a/biology/Botanique/Acrosiphonia/Acrosiphonia.xlsx
+++ b/biology/Botanique/Acrosiphonia/Acrosiphonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrosiphonia est un genre d’algues vertes de la famille des Ulotrichaceae.
 Ce sont des algues filamenteuses ramifiées formant des cordons enchevêtrés assez compacts. Chaque filament est constitué d'une file unique de cellules cylindriques, plus ou moins longues, à nombreux noyaux et à chloroplaste réticulé. Certaines files de cellules se terminent en forme de crochet.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs espèces appartenant à ce genre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs espèces appartenant à ce genre :
 Acrosiphonia arcta
 Acrosiphonia arctiuscula
 Acrosiphonia coalita
